--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -345,6 +345,132 @@
   </si>
   <si>
     <t>WPL031047</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220097</t>
+  </si>
+  <si>
+    <t>WPL031048</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220098</t>
+  </si>
+  <si>
+    <t>WPL031049</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220099</t>
+  </si>
+  <si>
+    <t>WPL031050</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220100</t>
+  </si>
+  <si>
+    <t>WPL031051</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220101</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220102</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220103</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220104</t>
+  </si>
+  <si>
+    <t>WPL031055</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220105</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220106</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220107</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220108</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220109</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220110</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220111</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220112</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220113</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220114</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220115</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220116</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220117</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220118</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220119</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220120</t>
+  </si>
+  <si>
+    <t>WPL031070</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220121</t>
+  </si>
+  <si>
+    <t>WPL031071</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220122</t>
+  </si>
+  <si>
+    <t>WPL031072</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220123</t>
+  </si>
+  <si>
+    <t>WPL031073</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220124</t>
+  </si>
+  <si>
+    <t>WPL031074</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220125</t>
+  </si>
+  <si>
+    <t>WPL031075</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220126</t>
+  </si>
+  <si>
+    <t>WPL031076</t>
   </si>
 </sst>
 </file>
@@ -1017,12 +1143,12 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -471,6 +471,153 @@
   </si>
   <si>
     <t>WPL031076</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220129</t>
+  </si>
+  <si>
+    <t>WPL031077</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220130</t>
+  </si>
+  <si>
+    <t>WPL031078</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220131</t>
+  </si>
+  <si>
+    <t>WPL031079</t>
+  </si>
+  <si>
+    <t>NewData 31</t>
+  </si>
+  <si>
+    <t>NewData 32</t>
+  </si>
+  <si>
+    <t>NewData 33</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220132</t>
+  </si>
+  <si>
+    <t>WPL031080</t>
+  </si>
+  <si>
+    <t>NewData 34</t>
+  </si>
+  <si>
+    <t>NewData 35</t>
+  </si>
+  <si>
+    <t>NewData 36</t>
+  </si>
+  <si>
+    <t>NewData 37</t>
+  </si>
+  <si>
+    <t>NewData 38</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220136</t>
+  </si>
+  <si>
+    <t>WPL031081</t>
+  </si>
+  <si>
+    <t>NewData 39</t>
+  </si>
+  <si>
+    <t>NewData 40</t>
+  </si>
+  <si>
+    <t>NewData 41</t>
+  </si>
+  <si>
+    <t>NewData 42</t>
+  </si>
+  <si>
+    <t>NewData 43</t>
+  </si>
+  <si>
+    <t>NewData 44</t>
+  </si>
+  <si>
+    <t>NewData 45</t>
+  </si>
+  <si>
+    <t>NewData 46</t>
+  </si>
+  <si>
+    <t>NewData 47</t>
+  </si>
+  <si>
+    <t>NewData 48</t>
+  </si>
+  <si>
+    <t>NewData 49</t>
+  </si>
+  <si>
+    <t>NewData 50</t>
+  </si>
+  <si>
+    <t>NewData 51</t>
+  </si>
+  <si>
+    <t>NewData 52</t>
+  </si>
+  <si>
+    <t>NewData 53</t>
+  </si>
+  <si>
+    <t>NewData 54</t>
+  </si>
+  <si>
+    <t>NewData 55</t>
+  </si>
+  <si>
+    <t>NewData 56</t>
+  </si>
+  <si>
+    <t>NewData 57</t>
+  </si>
+  <si>
+    <t>NewData 58</t>
+  </si>
+  <si>
+    <t>NewData 59</t>
+  </si>
+  <si>
+    <t>NewData 60</t>
+  </si>
+  <si>
+    <t>NewData 61</t>
+  </si>
+  <si>
+    <t>NewData 62</t>
+  </si>
+  <si>
+    <t>NewData 63</t>
+  </si>
+  <si>
+    <t>NewData 64</t>
+  </si>
+  <si>
+    <t>NewData 65</t>
+  </si>
+  <si>
+    <t>NewData 66</t>
+  </si>
+  <si>
+    <t>NewData 67</t>
+  </si>
+  <si>
+    <t>NewData 68</t>
+  </si>
+  <si>
+    <t>NewData 69</t>
   </si>
 </sst>
 </file>
@@ -1136,19 +1283,19 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="216">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -618,6 +618,69 @@
   </si>
   <si>
     <t>NewData 69</t>
+  </si>
+  <si>
+    <t>NewData 70</t>
+  </si>
+  <si>
+    <t>NewData 71</t>
+  </si>
+  <si>
+    <t>NewData 72</t>
+  </si>
+  <si>
+    <t>NewData 73</t>
+  </si>
+  <si>
+    <t>NewData 74</t>
+  </si>
+  <si>
+    <t>NewData 75</t>
+  </si>
+  <si>
+    <t>NewData 76</t>
+  </si>
+  <si>
+    <t>NewData 77</t>
+  </si>
+  <si>
+    <t>NewData 78</t>
+  </si>
+  <si>
+    <t>NewData 79</t>
+  </si>
+  <si>
+    <t>NewData 80</t>
+  </si>
+  <si>
+    <t>NewData 81</t>
+  </si>
+  <si>
+    <t>NewData 82</t>
+  </si>
+  <si>
+    <t>NewData 83</t>
+  </si>
+  <si>
+    <t>NewData 84</t>
+  </si>
+  <si>
+    <t>NewData 85</t>
+  </si>
+  <si>
+    <t>NewData 86</t>
+  </si>
+  <si>
+    <t>NewData 87</t>
+  </si>
+  <si>
+    <t>NewData 88</t>
+  </si>
+  <si>
+    <t>NewData 89</t>
+  </si>
+  <si>
+    <t>NewData 90</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1348,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">

--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c1bdfae8e7bbea/Desktop/DataSheet/Supplier_Equipment/Negative_TestData/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -99,12 +99,40 @@
   </si>
   <si>
     <t>NewData 30</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220149</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220150</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220151</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220152</t>
+  </si>
+  <si>
+    <t>PRK033111</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220153</t>
+  </si>
+  <si>
+    <t>PRK033102</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220133</t>
+  </si>
+  <si>
+    <t>PRK033103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F9FE2-4FBD-4D7F-97FE-0ACC42ECF50F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -591,16 +619,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -696,6 +724,16 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c1bdfae8e7bbea/Desktop/DataSheet/Supplier_Equipment/Negative_TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTP-7\eclipse-workspace\QUBES\src\main\resources\Inputdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{6C7300A1-87DC-4509-96C6-F32CA9A76B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F7BC9B-ADB2-4B30-89C9-7CC34D5019F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D697905-1ECD-4624-8D1F-29AB8EAA8A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{443813E4-90AF-426E-8EFF-071CC62605D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -59,9 +59,24 @@
     <t>Equipment Supplier Name</t>
   </si>
   <si>
+    <t>ideassion</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>10/A,secondCross Street,</t>
+  </si>
+  <si>
+    <t>idea@gmail.com</t>
+  </si>
+  <si>
+    <t>idea1@gamil.com</t>
+  </si>
+  <si>
+    <t>idea2@gamil.com</t>
+  </si>
+  <si>
     <t>5/44, East street</t>
   </si>
   <si>
@@ -86,46 +101,52 @@
     <t>TE Category</t>
   </si>
   <si>
-    <t>Karthik 12@</t>
-  </si>
-  <si>
-    <t>idea1@gamil.c</t>
-  </si>
-  <si>
-    <t>idea@gmail</t>
-  </si>
-  <si>
-    <t>idea2@gamil.coooom</t>
-  </si>
-  <si>
     <t>NewData 30</t>
   </si>
   <si>
-    <t>Var1-VS1P320220149</t>
-  </si>
-  <si>
-    <t>Var1-VS1P320220150</t>
-  </si>
-  <si>
-    <t>Var1-VS1P320220151</t>
-  </si>
-  <si>
-    <t>Var1-VS1P320220152</t>
-  </si>
-  <si>
-    <t>PRK033111</t>
-  </si>
-  <si>
-    <t>Var1-VS1P320220153</t>
-  </si>
-  <si>
-    <t>PRK033102</t>
-  </si>
-  <si>
-    <t>Var1-VS1P320220133</t>
-  </si>
-  <si>
-    <t>PRK033103</t>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nerver Stimulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZYNEX INC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEXWAVE </t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220013</t>
+  </si>
+  <si>
+    <t>WPL031043</t>
+  </si>
+  <si>
+    <t>Titiwangsa</t>
+  </si>
+  <si>
+    <t>Klinik Pergigian Sekolah Kebangsaan Jalan Pasar Di Pejabat Pergigian Bahagian Zon Keramat</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220014</t>
+  </si>
+  <si>
+    <t>WKL031206</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220015</t>
+  </si>
+  <si>
+    <t>WKL031207</t>
   </si>
 </sst>
 </file>
@@ -133,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +178,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -266,7 +294,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -275,7 +303,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -283,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,9 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F9FE2-4FBD-4D7F-97FE-0ACC42ECF50F}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,14 +673,19 @@
     <col min="8" max="8" customWidth="true" width="24.5546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="49.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -659,81 +708,123 @@
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>7654321</v>
+      </c>
+      <c r="E3">
+        <v>654321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>987654321</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2E+19</v>
-      </c>
-      <c r="E2" s="11">
-        <v>2E+19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1.23456789412652E+22</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10">
-        <v>7654321</v>
-      </c>
-      <c r="E3" s="10">
-        <v>654321</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10">
-        <v>987654321</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Inputdata/TestData.xlsx
+++ b/src/main/resources/Inputdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTP-7\eclipse-workspace\QUBES\src\main\resources\Inputdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D697905-1ECD-4624-8D1F-29AB8EAA8A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D0946-7C28-4E49-9B85-350C6DA3808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{443813E4-90AF-426E-8EFF-071CC62605D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t xml:space="preserve">Contact Number Land Line   </t>
   </si>
@@ -125,28 +125,274 @@
     <t xml:space="preserve"> NEXWAVE </t>
   </si>
   <si>
+    <t>Var1-VS1P320220012</t>
+  </si>
+  <si>
+    <t>WKL031208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaufort </t>
+  </si>
+  <si>
+    <t>Klinik Desa  Bukau, Beaufort</t>
+  </si>
+  <si>
     <t>Var1-VS1P320220013</t>
   </si>
   <si>
-    <t>WPL031043</t>
-  </si>
-  <si>
-    <t>Titiwangsa</t>
-  </si>
-  <si>
-    <t>Klinik Pergigian Sekolah Kebangsaan Jalan Pasar Di Pejabat Pergigian Bahagian Zon Keramat</t>
+    <t>SBH035168</t>
   </si>
   <si>
     <t>Var1-VS1P320220014</t>
   </si>
   <si>
-    <t>WKL031206</t>
+    <t>SBH035169</t>
   </si>
   <si>
     <t>Var1-VS1P320220015</t>
   </si>
   <si>
-    <t>WKL031207</t>
+    <t>SBH035170</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220021</t>
+  </si>
+  <si>
+    <t>SBH035173</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220001</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220002</t>
+  </si>
+  <si>
+    <t>SBH035174</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220003</t>
+  </si>
+  <si>
+    <t>SBH035175</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220004</t>
+  </si>
+  <si>
+    <t>SBH035176</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220005</t>
+  </si>
+  <si>
+    <t>SBH035177</t>
+  </si>
+  <si>
+    <t>Var1-VS1P320220008</t>
+  </si>
+  <si>
+    <t>NewData 31</t>
+  </si>
+  <si>
+    <t>NewData 32</t>
+  </si>
+  <si>
+    <t>NewData 33</t>
+  </si>
+  <si>
+    <t>NewData 34</t>
+  </si>
+  <si>
+    <t>NewData 35</t>
+  </si>
+  <si>
+    <t>NewData 36</t>
+  </si>
+  <si>
+    <t>NewData 37</t>
+  </si>
+  <si>
+    <t>NewData 38</t>
+  </si>
+  <si>
+    <t>NewData 39</t>
+  </si>
+  <si>
+    <t>NewData 40</t>
+  </si>
+  <si>
+    <t>NewData 41</t>
+  </si>
+  <si>
+    <t>NewData 42</t>
+  </si>
+  <si>
+    <t>NewData 43</t>
+  </si>
+  <si>
+    <t>NewData 44</t>
+  </si>
+  <si>
+    <t>NewData 45</t>
+  </si>
+  <si>
+    <t>NewData 46</t>
+  </si>
+  <si>
+    <t>NewData 47</t>
+  </si>
+  <si>
+    <t>NewData 48</t>
+  </si>
+  <si>
+    <t>NewData 49</t>
+  </si>
+  <si>
+    <t>NewData 50</t>
+  </si>
+  <si>
+    <t>NewData 51</t>
+  </si>
+  <si>
+    <t>NewData 52</t>
+  </si>
+  <si>
+    <t>NewData 53</t>
+  </si>
+  <si>
+    <t>NewData 54</t>
+  </si>
+  <si>
+    <t>NewData 55</t>
+  </si>
+  <si>
+    <t>NewData 56</t>
+  </si>
+  <si>
+    <t>NewData 57</t>
+  </si>
+  <si>
+    <t>NewData 58</t>
+  </si>
+  <si>
+    <t>NewData 59</t>
+  </si>
+  <si>
+    <t>NewData 60</t>
+  </si>
+  <si>
+    <t>NewData 61</t>
+  </si>
+  <si>
+    <t>NewData 62</t>
+  </si>
+  <si>
+    <t>NewData 63</t>
+  </si>
+  <si>
+    <t>NewData 64</t>
+  </si>
+  <si>
+    <t>NewData 65</t>
+  </si>
+  <si>
+    <t>NewData 66</t>
+  </si>
+  <si>
+    <t>NewData 67</t>
+  </si>
+  <si>
+    <t>NewData 68</t>
+  </si>
+  <si>
+    <t>NewData 69</t>
+  </si>
+  <si>
+    <t>NewData 70</t>
+  </si>
+  <si>
+    <t>NewData 71</t>
+  </si>
+  <si>
+    <t>NewData 72</t>
+  </si>
+  <si>
+    <t>NewData 73</t>
+  </si>
+  <si>
+    <t>NewData 74</t>
+  </si>
+  <si>
+    <t>NewData 75</t>
+  </si>
+  <si>
+    <t>NewData 76</t>
+  </si>
+  <si>
+    <t>NewData 77</t>
+  </si>
+  <si>
+    <t>NewData 78</t>
+  </si>
+  <si>
+    <t>NewData 79</t>
+  </si>
+  <si>
+    <t>NewData 80</t>
+  </si>
+  <si>
+    <t>NewData 81</t>
+  </si>
+  <si>
+    <t>NewData 82</t>
+  </si>
+  <si>
+    <t>NewData 83</t>
+  </si>
+  <si>
+    <t>NewData 84</t>
+  </si>
+  <si>
+    <t>NewData 85</t>
+  </si>
+  <si>
+    <t>NewData 86</t>
+  </si>
+  <si>
+    <t>NewData 87</t>
+  </si>
+  <si>
+    <t>NewData 88</t>
+  </si>
+  <si>
+    <t>NewData 89</t>
+  </si>
+  <si>
+    <t>NewData 90</t>
+  </si>
+  <si>
+    <t>NewData 91</t>
+  </si>
+  <si>
+    <t>NewData 92</t>
+  </si>
+  <si>
+    <t>NewData 93</t>
+  </si>
+  <si>
+    <t>NewData 94</t>
+  </si>
+  <si>
+    <t>NewData 95</t>
+  </si>
+  <si>
+    <t>NewData 96</t>
+  </si>
+  <si>
+    <t>NewData 97</t>
+  </si>
+  <si>
+    <t>NewData 98</t>
   </si>
 </sst>
 </file>
@@ -657,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F9FE2-4FBD-4D7F-97FE-0ACC42ECF50F}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -812,19 +1058,19 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
